--- a/Tianchen_Wang/Senior Projects Time Sheet_0907.xlsx
+++ b/Tianchen_Wang/Senior Projects Time Sheet_0907.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caleb/Desktop/CSCI4308/Tianchen Wang/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caleb/Desktop/CSCI4308/TimeSheet/bison-timesheets/Tianchen_Wang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A517EE1-9D94-4447-BDD6-AC7C4837C013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F37BDFA-A02C-224E-A156-0BA70CBE421D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
